--- a/Orders/Order5.xlsx
+++ b/Orders/Order5.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050"/>
   </bookViews>
@@ -358,7 +358,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
